--- a/converter/data/xlsx/10.12._BSMJENA.XLSX
+++ b/converter/data/xlsx/10.12._BSMJENA.XLSX
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkuns.MARTA\Desktop\RASPORED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9390" tabRatio="478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="120">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -441,8 +446,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2255,7 +2260,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3414,11 +3419,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3444,39 +3464,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3749,7 +3760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3791,7 +3802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3823,9 +3834,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3857,6 +3869,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4032,136 +4045,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="6" customWidth="1"/>
-    <col min="31" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="6" customWidth="1"/>
+    <col min="31" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="460" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="465" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="460"/>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
-      <c r="E1" s="460"/>
-      <c r="F1" s="460"/>
-      <c r="G1" s="460"/>
-      <c r="H1" s="460"/>
-      <c r="I1" s="460"/>
-      <c r="J1" s="460"/>
-      <c r="K1" s="460"/>
-      <c r="L1" s="460"/>
-      <c r="M1" s="460"/>
-      <c r="N1" s="460"/>
-      <c r="O1" s="460"/>
-      <c r="P1" s="460"/>
-      <c r="Q1" s="460"/>
-      <c r="R1" s="460"/>
-      <c r="S1" s="460"/>
-      <c r="T1" s="460"/>
-      <c r="U1" s="460"/>
-      <c r="V1" s="460"/>
-      <c r="W1" s="460"/>
-      <c r="X1" s="460"/>
-      <c r="Y1" s="460"/>
-      <c r="Z1" s="460"/>
-      <c r="AA1" s="460"/>
-      <c r="AB1" s="460"/>
-      <c r="AC1" s="460"/>
-      <c r="AD1" s="460"/>
-      <c r="AE1" s="460"/>
-      <c r="AF1" s="460"/>
-      <c r="AG1" s="460"/>
-      <c r="AH1" s="460"/>
-      <c r="AI1" s="460"/>
-      <c r="AJ1" s="460"/>
-    </row>
-    <row r="2" spans="1:37" ht="18">
+      <c r="B1" s="465"/>
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
+      <c r="E1" s="465"/>
+      <c r="F1" s="465"/>
+      <c r="G1" s="465"/>
+      <c r="H1" s="465"/>
+      <c r="I1" s="465"/>
+      <c r="J1" s="465"/>
+      <c r="K1" s="465"/>
+      <c r="L1" s="465"/>
+      <c r="M1" s="465"/>
+      <c r="N1" s="465"/>
+      <c r="O1" s="465"/>
+      <c r="P1" s="465"/>
+      <c r="Q1" s="465"/>
+      <c r="R1" s="465"/>
+      <c r="S1" s="465"/>
+      <c r="T1" s="465"/>
+      <c r="U1" s="465"/>
+      <c r="V1" s="465"/>
+      <c r="W1" s="465"/>
+      <c r="X1" s="465"/>
+      <c r="Y1" s="465"/>
+      <c r="Z1" s="465"/>
+      <c r="AA1" s="465"/>
+      <c r="AB1" s="465"/>
+      <c r="AC1" s="465"/>
+      <c r="AD1" s="465"/>
+      <c r="AE1" s="465"/>
+      <c r="AF1" s="465"/>
+      <c r="AG1" s="465"/>
+      <c r="AH1" s="465"/>
+      <c r="AI1" s="465"/>
+      <c r="AJ1" s="465"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="461" t="s">
+      <c r="B2" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="462"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="462"/>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="464" t="s">
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="468"/>
+      <c r="I2" s="469" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="462"/>
-      <c r="K2" s="462"/>
-      <c r="L2" s="462"/>
-      <c r="M2" s="462"/>
-      <c r="N2" s="462"/>
-      <c r="O2" s="463"/>
-      <c r="P2" s="461" t="s">
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="467"/>
+      <c r="M2" s="467"/>
+      <c r="N2" s="467"/>
+      <c r="O2" s="468"/>
+      <c r="P2" s="466" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="462"/>
-      <c r="R2" s="462"/>
-      <c r="S2" s="462"/>
-      <c r="T2" s="462"/>
-      <c r="U2" s="462"/>
-      <c r="V2" s="463"/>
-      <c r="W2" s="464" t="s">
+      <c r="Q2" s="467"/>
+      <c r="R2" s="467"/>
+      <c r="S2" s="467"/>
+      <c r="T2" s="467"/>
+      <c r="U2" s="467"/>
+      <c r="V2" s="468"/>
+      <c r="W2" s="469" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="462"/>
-      <c r="Y2" s="462"/>
-      <c r="Z2" s="462"/>
-      <c r="AA2" s="462"/>
-      <c r="AB2" s="462"/>
-      <c r="AC2" s="463"/>
-      <c r="AD2" s="465" t="s">
+      <c r="X2" s="467"/>
+      <c r="Y2" s="467"/>
+      <c r="Z2" s="467"/>
+      <c r="AA2" s="467"/>
+      <c r="AB2" s="467"/>
+      <c r="AC2" s="468"/>
+      <c r="AD2" s="470" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="466"/>
-      <c r="AF2" s="466"/>
-      <c r="AG2" s="466"/>
-      <c r="AH2" s="466"/>
-      <c r="AI2" s="466"/>
-      <c r="AJ2" s="467"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1">
+      <c r="AE2" s="471"/>
+      <c r="AF2" s="471"/>
+      <c r="AG2" s="471"/>
+      <c r="AH2" s="471"/>
+      <c r="AI2" s="471"/>
+      <c r="AJ2" s="472"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4271,7 +4284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>64</v>
       </c>
@@ -4317,7 +4330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="156" t="s">
         <v>79</v>
       </c>
@@ -4399,7 +4412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>37</v>
       </c>
@@ -4479,7 +4492,7 @@
       <c r="AI6" s="36"/>
       <c r="AJ6" s="40"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
@@ -4543,7 +4556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>47</v>
       </c>
@@ -4621,7 +4634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
@@ -4687,7 +4700,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>80</v>
       </c>
@@ -4764,7 +4777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>65</v>
       </c>
@@ -4828,7 +4841,7 @@
       <c r="AI11" s="39"/>
       <c r="AJ11" s="28"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -4880,7 +4893,7 @@
       <c r="AI12" s="24"/>
       <c r="AJ12" s="42"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
@@ -4940,7 +4953,7 @@
       <c r="AI13" s="11"/>
       <c r="AJ13" s="34"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
@@ -4984,7 +4997,7 @@
       <c r="AI14" s="11"/>
       <c r="AJ14" s="34"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>94</v>
       </c>
@@ -5028,7 +5041,7 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="34"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5098,7 @@
       <c r="AJ16" s="34"/>
       <c r="AK16" s="117"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -5144,7 +5157,7 @@
       <c r="AJ17" s="34"/>
       <c r="AK17" s="117"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>48</v>
       </c>
@@ -5203,7 +5216,7 @@
       <c r="AJ18" s="34"/>
       <c r="AK18" s="117"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>40</v>
       </c>
@@ -5252,7 +5265,7 @@
       <c r="AJ19" s="34"/>
       <c r="AK19" s="117"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>95</v>
       </c>
@@ -5295,7 +5308,7 @@
       <c r="AJ20" s="34"/>
       <c r="AK20" s="117"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>5</v>
       </c>
@@ -5352,7 +5365,7 @@
       </c>
       <c r="AK21" s="117"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -5404,7 +5417,7 @@
       <c r="AK22" s="117"/>
       <c r="AL22" s="117"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
@@ -5479,7 +5492,7 @@
       <c r="AJ23" s="28"/>
       <c r="AM23" s="117"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>21</v>
       </c>
@@ -5543,7 +5556,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>75</v>
       </c>
@@ -5622,7 +5635,7 @@
       </c>
       <c r="AL25" s="117"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>83</v>
       </c>
@@ -5667,7 +5680,7 @@
       <c r="AJ26" s="28"/>
       <c r="AL26" s="117"/>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
@@ -5747,17 +5760,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="458"/>
-      <c r="C28" s="459"/>
-      <c r="D28" s="459"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="158"/>
+      <c r="B28" s="475" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="476" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="476" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="477" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="477" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="477" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="478" t="s">
+        <v>88</v>
+      </c>
       <c r="I28" s="326" t="s">
         <v>101</v>
       </c>
@@ -5831,7 +5858,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>43</v>
       </c>
@@ -5911,7 +5938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>51</v>
       </c>
@@ -5975,7 +6002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="147" t="s">
         <v>39</v>
       </c>
@@ -6056,7 +6083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>38</v>
       </c>
@@ -6135,7 +6162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>18</v>
       </c>
@@ -6226,7 +6253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1">
+    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
@@ -6271,7 +6298,7 @@
       <c r="AJ34" s="53"/>
       <c r="AK34" s="174"/>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>12</v>
       </c>
@@ -6395,7 +6422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>45</v>
       </c>
@@ -6466,7 +6493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1">
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>16</v>
       </c>
@@ -6517,7 +6544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
@@ -6598,7 +6625,7 @@
       </c>
       <c r="AK39" s="173"/>
     </row>
-    <row r="40" spans="1:37" ht="18" customHeight="1">
+    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="156" t="s">
         <v>84</v>
       </c>
@@ -6674,7 +6701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1">
+    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>85</v>
       </c>
@@ -6746,7 +6773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1">
+    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>66</v>
       </c>
@@ -6836,7 +6863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>44</v>
       </c>
@@ -6880,7 +6907,7 @@
       <c r="AI43" s="39"/>
       <c r="AJ43" s="53"/>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1">
+    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>98</v>
       </c>
@@ -6928,7 +6955,7 @@
       <c r="AI44" s="39"/>
       <c r="AJ44" s="53"/>
     </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>67</v>
       </c>
@@ -6984,7 +7011,7 @@
       <c r="AI45" s="24"/>
       <c r="AJ45" s="201"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1">
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>8</v>
       </c>
@@ -7037,7 +7064,7 @@
       <c r="AJ46" s="34"/>
       <c r="AK46" s="135"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1">
+    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>19</v>
       </c>
@@ -7092,7 +7119,7 @@
       <c r="AJ47" s="40"/>
       <c r="AK47" s="110"/>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>9</v>
       </c>
@@ -7150,7 +7177,7 @@
       <c r="AI48" s="24"/>
       <c r="AJ48" s="42"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1" thickBot="1">
+    <row r="49" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="307" t="s">
         <v>99</v>
       </c>
@@ -7198,7 +7225,7 @@
       <c r="AI49" s="36"/>
       <c r="AJ49" s="40"/>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1">
+    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>11</v>
       </c>
@@ -7270,7 +7297,7 @@
       <c r="AI50" s="55"/>
       <c r="AJ50" s="57"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>82</v>
       </c>
@@ -7338,7 +7365,7 @@
       <c r="AI51" s="33"/>
       <c r="AJ51" s="44"/>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1" thickBot="1">
+    <row r="52" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>116</v>
       </c>
@@ -7398,7 +7425,7 @@
       <c r="AI52" s="24"/>
       <c r="AJ52" s="42"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="457" t="s">
         <v>59</v>
       </c>
@@ -7479,7 +7506,7 @@
       </c>
       <c r="AK53" s="117"/>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>118</v>
       </c>
@@ -7530,7 +7557,7 @@
       <c r="AJ54" s="456"/>
       <c r="AK54" s="117"/>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>76</v>
       </c>
@@ -7572,11 +7599,11 @@
       <c r="U55" s="50"/>
       <c r="V55" s="51"/>
       <c r="W55" s="60"/>
-      <c r="X55" s="468" t="s">
+      <c r="X55" s="458" t="s">
         <v>115</v>
       </c>
-      <c r="Y55" s="469"/>
-      <c r="Z55" s="470"/>
+      <c r="Y55" s="459"/>
+      <c r="Z55" s="460"/>
       <c r="AA55" s="50" t="s">
         <v>89</v>
       </c>
@@ -7601,7 +7628,7 @@
       <c r="AJ55" s="44"/>
       <c r="AL55" s="117"/>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>81</v>
       </c>
@@ -7689,7 +7716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1">
+    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>60</v>
       </c>
@@ -7785,7 +7812,7 @@
       </c>
       <c r="AJ57" s="61"/>
     </row>
-    <row r="58" spans="1:38" ht="18" customHeight="1">
+    <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>52</v>
       </c>
@@ -7856,7 +7883,7 @@
       <c r="AJ58" s="119"/>
       <c r="AK58" s="117"/>
     </row>
-    <row r="59" spans="1:38" ht="18" customHeight="1">
+    <row r="59" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>78</v>
       </c>
@@ -7955,7 +7982,7 @@
       <c r="AJ59" s="87"/>
       <c r="AK59" s="117"/>
     </row>
-    <row r="60" spans="1:38" ht="18" customHeight="1">
+    <row r="60" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>77</v>
       </c>
@@ -8036,7 +8063,7 @@
       <c r="AJ60" s="132"/>
       <c r="AK60" s="117"/>
     </row>
-    <row r="61" spans="1:38" ht="20.25" customHeight="1">
+    <row r="61" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>41</v>
       </c>
@@ -8097,7 +8124,7 @@
       <c r="AJ61" s="230"/>
       <c r="AK61" s="118"/>
     </row>
-    <row r="62" spans="1:38" ht="20.25" customHeight="1">
+    <row r="62" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="88" t="s">
         <v>74</v>
       </c>
@@ -8182,7 +8209,7 @@
       <c r="AJ62" s="132"/>
       <c r="AL62" s="117"/>
     </row>
-    <row r="63" spans="1:38" ht="20.25" customHeight="1" thickBot="1">
+    <row r="63" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
         <v>62</v>
       </c>
@@ -8247,7 +8274,7 @@
       <c r="AJ63" s="165"/>
       <c r="AL63" s="117"/>
     </row>
-    <row r="64" spans="1:38" ht="13.5" thickBot="1">
+    <row r="64" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="65"/>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -8284,73 +8311,73 @@
       <c r="AI64" s="65"/>
       <c r="AJ64" s="65"/>
     </row>
-    <row r="65" spans="1:36" ht="21" thickBot="1">
+    <row r="65" spans="1:36" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="471" t="s">
+      <c r="B65" s="461" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="472"/>
-      <c r="D65" s="472"/>
-      <c r="E65" s="472"/>
-      <c r="F65" s="472"/>
-      <c r="G65" s="472"/>
-      <c r="H65" s="474"/>
-      <c r="I65" s="471" t="s">
+      <c r="C65" s="462"/>
+      <c r="D65" s="462"/>
+      <c r="E65" s="462"/>
+      <c r="F65" s="462"/>
+      <c r="G65" s="462"/>
+      <c r="H65" s="464"/>
+      <c r="I65" s="461" t="s">
         <v>7</v>
       </c>
-      <c r="J65" s="472"/>
-      <c r="K65" s="472"/>
-      <c r="L65" s="472"/>
-      <c r="M65" s="472"/>
-      <c r="N65" s="472"/>
-      <c r="O65" s="474"/>
-      <c r="P65" s="471" t="s">
+      <c r="J65" s="462"/>
+      <c r="K65" s="462"/>
+      <c r="L65" s="462"/>
+      <c r="M65" s="462"/>
+      <c r="N65" s="462"/>
+      <c r="O65" s="464"/>
+      <c r="P65" s="461" t="s">
         <v>18</v>
       </c>
-      <c r="Q65" s="472"/>
-      <c r="R65" s="472"/>
-      <c r="S65" s="472"/>
-      <c r="T65" s="472"/>
-      <c r="U65" s="472"/>
-      <c r="V65" s="474"/>
-      <c r="W65" s="471" t="s">
+      <c r="Q65" s="462"/>
+      <c r="R65" s="462"/>
+      <c r="S65" s="462"/>
+      <c r="T65" s="462"/>
+      <c r="U65" s="462"/>
+      <c r="V65" s="464"/>
+      <c r="W65" s="461" t="s">
         <v>49</v>
       </c>
-      <c r="X65" s="472"/>
-      <c r="Y65" s="472"/>
-      <c r="Z65" s="472"/>
-      <c r="AA65" s="472"/>
-      <c r="AB65" s="472"/>
-      <c r="AC65" s="474"/>
-      <c r="AD65" s="471" t="s">
+      <c r="X65" s="462"/>
+      <c r="Y65" s="462"/>
+      <c r="Z65" s="462"/>
+      <c r="AA65" s="462"/>
+      <c r="AB65" s="462"/>
+      <c r="AC65" s="464"/>
+      <c r="AD65" s="461" t="s">
         <v>45</v>
       </c>
-      <c r="AE65" s="472"/>
-      <c r="AF65" s="472"/>
-      <c r="AG65" s="472"/>
-      <c r="AH65" s="472"/>
-      <c r="AI65" s="472"/>
-      <c r="AJ65" s="473"/>
-    </row>
-    <row r="69" spans="1:36">
+      <c r="AE65" s="462"/>
+      <c r="AF65" s="462"/>
+      <c r="AG65" s="462"/>
+      <c r="AH65" s="462"/>
+      <c r="AI65" s="462"/>
+      <c r="AJ65" s="463"/>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="O69" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="X55:Z55"/>
     <mergeCell ref="AD65:AJ65"/>
     <mergeCell ref="W65:AC65"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="I65:O65"/>
     <mergeCell ref="P65:V65"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8362,35 +8389,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="202"/>
-    <col min="2" max="2" width="16.42578125" style="202" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="202" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="202" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="202"/>
+    <col min="1" max="1" width="9.109375" style="202"/>
+    <col min="2" max="2" width="16.44140625" style="202" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="202" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="202" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="202"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="475" t="s">
+    <row r="1" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B1" s="473" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="475"/>
-      <c r="D1" s="475"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+      <c r="C1" s="473"/>
+      <c r="D1" s="473"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="179"/>
       <c r="C2" s="93"/>
       <c r="D2" s="94"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="206"/>
       <c r="C3" s="93" t="s">
         <v>26</v>
@@ -8399,12 +8426,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="179"/>
       <c r="C4" s="93"/>
       <c r="D4" s="94"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="180"/>
       <c r="C5" s="93" t="s">
         <v>26</v>
@@ -8413,12 +8440,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="179"/>
       <c r="C6" s="93"/>
       <c r="D6" s="94"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="181"/>
       <c r="C7" s="93" t="s">
         <v>26</v>
@@ -8427,12 +8454,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="179"/>
       <c r="C8" s="93"/>
       <c r="D8" s="94"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="95"/>
       <c r="C9" s="93" t="s">
         <v>26</v>
@@ -8441,25 +8468,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="182"/>
       <c r="C10" s="183"/>
       <c r="D10" s="94"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="205"/>
       <c r="C11" s="184"/>
       <c r="D11" s="94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="185"/>
       <c r="C12" s="93"/>
       <c r="D12" s="186"/>
       <c r="F12" s="204"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="187"/>
       <c r="C13" s="93" t="s">
         <v>26</v>
@@ -8468,12 +8495,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="179"/>
       <c r="C14" s="93"/>
       <c r="D14" s="94"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="208"/>
       <c r="C15" s="93" t="s">
         <v>26</v>
@@ -8482,12 +8509,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="179"/>
       <c r="C16" s="93"/>
       <c r="D16" s="94"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="96"/>
       <c r="C17" s="93" t="s">
         <v>26</v>
@@ -8496,12 +8523,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="179"/>
       <c r="C18" s="93"/>
       <c r="D18" s="94"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="203"/>
       <c r="C19" s="93" t="s">
         <v>26</v>
@@ -8510,12 +8537,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="179"/>
       <c r="C20" s="93"/>
       <c r="D20" s="94"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="97"/>
       <c r="C21" s="93" t="s">
         <v>26</v>
@@ -8524,12 +8551,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="179"/>
       <c r="C22" s="93"/>
       <c r="D22" s="94"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="98"/>
       <c r="C23" s="93" t="s">
         <v>26</v>
@@ -8538,12 +8565,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1">
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="179"/>
       <c r="C24" s="179"/>
       <c r="D24" s="94"/>
     </row>
-    <row r="25" spans="2:4" ht="21" thickBot="1">
+    <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="99"/>
       <c r="C25" s="93" t="s">
         <v>26</v>
@@ -8552,79 +8579,79 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="179"/>
       <c r="C26" s="179"/>
       <c r="D26" s="179"/>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="188"/>
       <c r="C27" s="179"/>
       <c r="D27" s="94" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="179"/>
       <c r="C28" s="179"/>
       <c r="D28" s="94"/>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="100"/>
       <c r="C29" s="179"/>
       <c r="D29" s="94" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="179"/>
       <c r="C30" s="179"/>
       <c r="D30" s="179"/>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1">
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="101"/>
       <c r="C31" s="179"/>
       <c r="D31" s="94">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="179"/>
       <c r="C32" s="179"/>
       <c r="D32" s="179"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1">
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="189"/>
       <c r="C33" s="179"/>
       <c r="D33" s="94" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="179"/>
       <c r="C34" s="179"/>
       <c r="D34" s="179"/>
     </row>
-    <row r="35" spans="2:4" ht="18">
-      <c r="B35" s="476" t="s">
+    <row r="35" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B35" s="474" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="476"/>
-      <c r="D35" s="476"/>
-    </row>
-    <row r="36" spans="2:4" ht="18">
-      <c r="B36" s="476" t="s">
+      <c r="C35" s="474"/>
+      <c r="D35" s="474"/>
+    </row>
+    <row r="36" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B36" s="474" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="476"/>
-      <c r="D36" s="476"/>
-    </row>
-    <row r="37" spans="2:4" ht="18">
-      <c r="B37" s="476" t="s">
+      <c r="C36" s="474"/>
+      <c r="D36" s="474"/>
+    </row>
+    <row r="37" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B37" s="474" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="476"/>
-      <c r="D37" s="476"/>
+      <c r="C37" s="474"/>
+      <c r="D37" s="474"/>
     </row>
   </sheetData>
   <mergeCells count="4">
